--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lama1-Rpsa.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lama1-Rpsa.xlsx
@@ -534,10 +534,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.09358433333333334</v>
+        <v>0.01135533333333333</v>
       </c>
       <c r="H2">
-        <v>0.280753</v>
+        <v>0.034066</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>52.80829433333334</v>
+        <v>13.929953</v>
       </c>
       <c r="N2">
-        <v>158.424883</v>
+        <v>41.789859</v>
       </c>
       <c r="O2">
-        <v>0.1724060238174878</v>
+        <v>0.09674275490334808</v>
       </c>
       <c r="P2">
-        <v>0.1724060238174878</v>
+        <v>0.09674275490334808</v>
       </c>
       <c r="Q2">
-        <v>4.942029019655446</v>
+        <v>0.1581792596326667</v>
       </c>
       <c r="R2">
-        <v>44.47826117689901</v>
+        <v>1.423613336694</v>
       </c>
       <c r="S2">
-        <v>0.1724060238174878</v>
+        <v>0.09674275490334808</v>
       </c>
       <c r="T2">
-        <v>0.1724060238174878</v>
+        <v>0.09674275490334808</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,10 +596,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.09358433333333334</v>
+        <v>0.01135533333333333</v>
       </c>
       <c r="H3">
-        <v>0.280753</v>
+        <v>0.034066</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>81.07766966666668</v>
+        <v>81.07766966666667</v>
       </c>
       <c r="N3">
         <v>243.233009</v>
       </c>
       <c r="O3">
-        <v>0.2646985445010758</v>
+        <v>0.5630799418129374</v>
       </c>
       <c r="P3">
-        <v>0.2646985445010758</v>
+        <v>0.5630799418129373</v>
       </c>
       <c r="Q3">
-        <v>7.587599663975224</v>
+        <v>0.9206639649548889</v>
       </c>
       <c r="R3">
-        <v>68.28839697577702</v>
+        <v>8.285975684594</v>
       </c>
       <c r="S3">
-        <v>0.2646985445010758</v>
+        <v>0.5630799418129374</v>
       </c>
       <c r="T3">
-        <v>0.2646985445010758</v>
+        <v>0.5630799418129373</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,10 +658,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.09358433333333334</v>
+        <v>0.01135533333333333</v>
       </c>
       <c r="H4">
-        <v>0.280753</v>
+        <v>0.034066</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>172.4159456666667</v>
+        <v>48.98200233333333</v>
       </c>
       <c r="N4">
-        <v>517.247837</v>
+        <v>146.946007</v>
       </c>
       <c r="O4">
-        <v>0.5628954316814363</v>
+        <v>0.3401773032837146</v>
       </c>
       <c r="P4">
-        <v>0.5628954316814363</v>
+        <v>0.3401773032837146</v>
       </c>
       <c r="Q4">
-        <v>16.13543133125122</v>
+        <v>0.5562069638291112</v>
       </c>
       <c r="R4">
-        <v>145.218881981261</v>
+        <v>5.005862674462001</v>
       </c>
       <c r="S4">
-        <v>0.5628954316814363</v>
+        <v>0.3401773032837146</v>
       </c>
       <c r="T4">
-        <v>0.5628954316814363</v>
+        <v>0.3401773032837146</v>
       </c>
     </row>
   </sheetData>
